--- a/target/test-classes/InfObsNames.xlsx
+++ b/target/test-classes/InfObsNames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IntelligentDiagnosticsProject_C1\diagnostics\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9049E78A-D613-4B96-905C-D576CE13518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C48618-1002-43DA-B95D-D5CB820B6F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A5DE2BF0-B445-4AF8-8466-E672936F7FF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A5DE2BF0-B445-4AF8-8466-E672936F7FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Observations" sheetId="1" r:id="rId1"/>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC902A3-BA67-47D3-8A30-01980C74FA15}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10884B39-0C34-48DF-8213-9B9A0BE82493}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
